--- a/src/main/resources/excel/positionKpi.xlsx
+++ b/src/main/resources/excel/positionKpi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27630"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\performance-api\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9DC905-38E7-4F58-91ED-2331ECDD8026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF7930B-4D01-47E4-911B-7A53EC6301ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="876" windowWidth="18360" windowHeight="11484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>所属部门</t>
   </si>
   <si>
-    <t>kpi条目</t>
+    <t>提成条目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/src/main/resources/excel/positionKpi.xlsx
+++ b/src/main/resources/excel/positionKpi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\performance-api\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF7930B-4D01-47E4-911B-7A53EC6301ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980C59C7-BCC4-4DB7-B516-C0BC817D8B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,6 @@
   </si>
   <si>
     <t>提成条目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -362,7 +361,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/excel/positionKpi.xlsx
+++ b/src/main/resources/excel/positionKpi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\performance-api\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980C59C7-BCC4-4DB7-B516-C0BC817D8B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF30337-75B4-4464-AC0F-316616F7BFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>岗位名称</t>
   </si>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>提成条目</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -358,22 +362,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
